--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H2">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N2">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O2">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P2">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q2">
-        <v>21.73882933589667</v>
+        <v>43.62322978476934</v>
       </c>
       <c r="R2">
-        <v>195.64946402307</v>
+        <v>392.6090680629241</v>
       </c>
       <c r="S2">
-        <v>0.008051903515599614</v>
+        <v>0.03009834116000554</v>
       </c>
       <c r="T2">
-        <v>0.008051903515599612</v>
+        <v>0.03009834116000556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H3">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P3">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q3">
-        <v>60.057625839994</v>
+        <v>100.020191646398</v>
       </c>
       <c r="R3">
-        <v>540.518632559946</v>
+        <v>900.1817248175821</v>
       </c>
       <c r="S3">
-        <v>0.02224490570157317</v>
+        <v>0.06901006335192295</v>
       </c>
       <c r="T3">
-        <v>0.02224490570157317</v>
+        <v>0.06901006335192297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H4">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N4">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O4">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P4">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q4">
-        <v>0.0770846382021111</v>
+        <v>0.1097057819635556</v>
       </c>
       <c r="R4">
-        <v>0.6937617438189999</v>
+        <v>0.9873520376720001</v>
       </c>
       <c r="S4">
-        <v>2.855158664470472E-05</v>
+        <v>7.569274602214641E-05</v>
       </c>
       <c r="T4">
-        <v>2.855158664470473E-05</v>
+        <v>7.569274602214644E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H5">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N5">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q5">
-        <v>18.86774728540589</v>
+        <v>5.863787864601557</v>
       </c>
       <c r="R5">
-        <v>169.809725568653</v>
+        <v>52.77409078141401</v>
       </c>
       <c r="S5">
-        <v>0.006988475706368498</v>
+        <v>0.004045786809217369</v>
       </c>
       <c r="T5">
-        <v>0.006988475706368498</v>
+        <v>0.00404578680921737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H6">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N6">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q6">
-        <v>0.2073943752187777</v>
+        <v>0.3255548742214445</v>
       </c>
       <c r="R6">
-        <v>1.866549376969</v>
+        <v>2.929993867993001</v>
       </c>
       <c r="S6">
-        <v>7.681736091382687E-05</v>
+        <v>0.0002246202704147515</v>
       </c>
       <c r="T6">
-        <v>7.681736091382687E-05</v>
+        <v>0.0002246202704147516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H7">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N7">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q7">
-        <v>0.1996637728704444</v>
+        <v>0.01454472424188889</v>
       </c>
       <c r="R7">
-        <v>1.796973955834</v>
+        <v>0.130902518177</v>
       </c>
       <c r="S7">
-        <v>7.395400230033141E-05</v>
+        <v>1.003529712198016E-05</v>
       </c>
       <c r="T7">
-        <v>7.395400230033141E-05</v>
+        <v>1.003529712198016E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N8">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O8">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P8">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q8">
-        <v>254.4423702779134</v>
+        <v>306.5854738651014</v>
       </c>
       <c r="R8">
-        <v>2289.981332501221</v>
+        <v>2759.269264785913</v>
       </c>
       <c r="S8">
-        <v>0.09424359445037815</v>
+        <v>0.21153211792483</v>
       </c>
       <c r="T8">
-        <v>0.09424359445037814</v>
+        <v>0.2115321179248301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P9">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q9">
         <v>702.9451510877241</v>
@@ -1013,10 +1013,10 @@
         <v>6326.506359789517</v>
       </c>
       <c r="S9">
-        <v>0.2603657467410485</v>
+        <v>0.4850049636076444</v>
       </c>
       <c r="T9">
-        <v>0.2603657467410484</v>
+        <v>0.4850049636076446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N10">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O10">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P10">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q10">
-        <v>0.9022380070748888</v>
+        <v>0.7710157939928889</v>
       </c>
       <c r="R10">
-        <v>8.120142063673999</v>
+        <v>6.939142145936</v>
       </c>
       <c r="S10">
-        <v>0.0003341823641385257</v>
+        <v>0.0005319710741695883</v>
       </c>
       <c r="T10">
-        <v>0.0003341823641385257</v>
+        <v>0.0005319710741695884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N11">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q11">
-        <v>220.8377584148931</v>
+        <v>41.21089130683689</v>
       </c>
       <c r="R11">
-        <v>1987.539825734038</v>
+        <v>370.898021761532</v>
       </c>
       <c r="S11">
-        <v>0.08179669180353639</v>
+        <v>0.02843392092197059</v>
       </c>
       <c r="T11">
-        <v>0.08179669180353639</v>
+        <v>0.0284339209219706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N12">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q12">
-        <v>2.427449776508222</v>
+        <v>2.288010215537112</v>
       </c>
       <c r="R12">
-        <v>21.847047988574</v>
+        <v>20.592091939834</v>
       </c>
       <c r="S12">
-        <v>0.0008991096570749097</v>
+        <v>0.001578638546127493</v>
       </c>
       <c r="T12">
-        <v>0.0008991096570749097</v>
+        <v>0.001578638546127493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N13">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q13">
-        <v>2.336966855151556</v>
+        <v>0.1022207937362222</v>
       </c>
       <c r="R13">
-        <v>21.032701696364</v>
+        <v>0.9199871436260001</v>
       </c>
       <c r="S13">
-        <v>0.000865595444266292</v>
+        <v>7.052839367234493E-05</v>
       </c>
       <c r="T13">
-        <v>0.000865595444266292</v>
+        <v>7.052839367234495E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H14">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N14">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O14">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P14">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q14">
-        <v>5.593273498236667</v>
+        <v>5.544725635748</v>
       </c>
       <c r="R14">
-        <v>50.33946148413</v>
+        <v>49.90253072173201</v>
       </c>
       <c r="S14">
-        <v>0.002071707627318945</v>
+        <v>0.003825646212964246</v>
       </c>
       <c r="T14">
-        <v>0.002071707627318945</v>
+        <v>0.003825646212964248</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H15">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P15">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q15">
-        <v>15.452475466246</v>
+        <v>12.713055027114</v>
       </c>
       <c r="R15">
-        <v>139.072279196214</v>
+        <v>114.417495244026</v>
       </c>
       <c r="S15">
-        <v>0.005723483983837571</v>
+        <v>0.008771516214638392</v>
       </c>
       <c r="T15">
-        <v>0.00572348398383757</v>
+        <v>0.008771516214638396</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H16">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N16">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O16">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P16">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q16">
-        <v>0.01983342604677777</v>
+        <v>0.01394414087733333</v>
       </c>
       <c r="R16">
-        <v>0.178500834421</v>
+        <v>0.125497267896</v>
       </c>
       <c r="S16">
-        <v>7.346156062264693E-06</v>
+        <v>9.620917831620312E-06</v>
       </c>
       <c r="T16">
-        <v>7.346156062264694E-06</v>
+        <v>9.620917831620315E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H17">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N17">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q17">
-        <v>4.854560898025222</v>
+        <v>0.7453160863113333</v>
       </c>
       <c r="R17">
-        <v>43.69104808222699</v>
+        <v>6.707844776802</v>
       </c>
       <c r="S17">
-        <v>0.001798093878816009</v>
+        <v>0.0005142392699604937</v>
       </c>
       <c r="T17">
-        <v>0.001798093878816009</v>
+        <v>0.0005142392699604938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H18">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N18">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q18">
-        <v>0.05336135836344442</v>
+        <v>0.04137961507766667</v>
       </c>
       <c r="R18">
-        <v>0.4802522252709998</v>
+        <v>0.372416535699</v>
       </c>
       <c r="S18">
-        <v>1.976465716552195E-05</v>
+        <v>2.855033379743379E-05</v>
       </c>
       <c r="T18">
-        <v>1.976465716552195E-05</v>
+        <v>2.855033379743381E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H19">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N19">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q19">
-        <v>0.0513723196451111</v>
+        <v>0.001848705512333333</v>
       </c>
       <c r="R19">
-        <v>0.4623508768059999</v>
+        <v>0.016638349611</v>
       </c>
       <c r="S19">
-        <v>1.902793176042547E-05</v>
+        <v>1.275535293675544E-06</v>
       </c>
       <c r="T19">
-        <v>1.902793176042547E-05</v>
+        <v>1.275535293675545E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H20">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N20">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O20">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P20">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q20">
-        <v>281.8985908341067</v>
+        <v>59.34114262998134</v>
       </c>
       <c r="R20">
-        <v>2537.08731750696</v>
+        <v>534.0702836698321</v>
       </c>
       <c r="S20">
-        <v>0.104413177890478</v>
+        <v>0.04094309303813441</v>
       </c>
       <c r="T20">
-        <v>0.104413177890478</v>
+        <v>0.04094309303813443</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H21">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>167.922954</v>
       </c>
       <c r="O21">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P21">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q21">
-        <v>778.798151066032</v>
+        <v>136.058528624564</v>
       </c>
       <c r="R21">
-        <v>7009.183359594288</v>
+        <v>1224.526757621076</v>
       </c>
       <c r="S21">
-        <v>0.2884611435886416</v>
+        <v>0.0938751218668428</v>
       </c>
       <c r="T21">
-        <v>0.2884611435886414</v>
+        <v>0.09387512186684281</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H22">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N22">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O22">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P22">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q22">
-        <v>0.9995961856257776</v>
+        <v>0.1492339399662222</v>
       </c>
       <c r="R22">
-        <v>8.996365670631999</v>
+        <v>1.343105459696</v>
       </c>
       <c r="S22">
-        <v>0.0003702431219665388</v>
+        <v>0.0001029656460540979</v>
       </c>
       <c r="T22">
-        <v>0.0003702431219665388</v>
+        <v>0.000102965646054098</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H23">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N23">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O23">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P23">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q23">
-        <v>244.6677918937982</v>
+        <v>7.976572888850224</v>
       </c>
       <c r="R23">
-        <v>2202.010127044184</v>
+        <v>71.78915599965201</v>
       </c>
       <c r="S23">
-        <v>0.09062316205089288</v>
+        <v>0.005503526751246818</v>
       </c>
       <c r="T23">
-        <v>0.09062316205089288</v>
+        <v>0.005503526751246819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H24">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N24">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O24">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P24">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q24">
-        <v>2.689389627092444</v>
+        <v>0.4428557518637778</v>
       </c>
       <c r="R24">
-        <v>24.20450664383199</v>
+        <v>3.985701766774</v>
       </c>
       <c r="S24">
-        <v>0.000996130263438106</v>
+        <v>0.0003055533386691264</v>
       </c>
       <c r="T24">
-        <v>0.000996130263438106</v>
+        <v>0.0003055533386691265</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H25">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N25">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O25">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P25">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q25">
-        <v>2.589142926839111</v>
+        <v>0.01978534280955556</v>
       </c>
       <c r="R25">
-        <v>23.30228634155199</v>
+        <v>0.178068085286</v>
       </c>
       <c r="S25">
-        <v>0.0009589996182812298</v>
+        <v>1.365112122114308E-05</v>
       </c>
       <c r="T25">
-        <v>0.0009589996182812297</v>
+        <v>1.365112122114309E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H26">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N26">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O26">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P26">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q26">
-        <v>1.711734532850001</v>
+        <v>3.861181156286667</v>
       </c>
       <c r="R26">
-        <v>15.40561079565</v>
+        <v>34.75063040658</v>
       </c>
       <c r="S26">
-        <v>0.0006340139613713786</v>
+        <v>0.002664065643371419</v>
       </c>
       <c r="T26">
-        <v>0.0006340139613713783</v>
+        <v>0.00266406564337142</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H27">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>167.922954</v>
       </c>
       <c r="O27">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P27">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q27">
-        <v>4.728990256230001</v>
+        <v>8.852991425410002</v>
       </c>
       <c r="R27">
-        <v>42.56091230607001</v>
+        <v>79.67692282869</v>
       </c>
       <c r="S27">
-        <v>0.001751583430782938</v>
+        <v>0.006108221640700851</v>
       </c>
       <c r="T27">
-        <v>0.001751583430782937</v>
+        <v>0.006108221640700852</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1581616666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.474485</v>
+      </c>
+      <c r="I28">
+        <v>0.009157857699955935</v>
+      </c>
+      <c r="J28">
+        <v>0.009157857699955935</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G28">
-        <v>0.08448500000000002</v>
-      </c>
-      <c r="H28">
-        <v>0.253455</v>
-      </c>
-      <c r="I28">
-        <v>0.002949996159668451</v>
-      </c>
-      <c r="J28">
-        <v>0.002949996159668451</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M28">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N28">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O28">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P28">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q28">
-        <v>0.006069712178333334</v>
+        <v>0.009710282804444444</v>
       </c>
       <c r="R28">
-        <v>0.054627409605</v>
+        <v>0.08739254523999999</v>
       </c>
       <c r="S28">
-        <v>2.248177032545993E-06</v>
+        <v>6.699719531320568E-06</v>
       </c>
       <c r="T28">
-        <v>2.248177032545993E-06</v>
+        <v>6.699719531320569E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H29">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N29">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O29">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P29">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q29">
-        <v>1.485663008181667</v>
+        <v>0.5190158390144445</v>
       </c>
       <c r="R29">
-        <v>13.370967073635</v>
+        <v>4.67114255113</v>
       </c>
       <c r="S29">
-        <v>0.0005502787207966661</v>
+        <v>0.0003581008528524263</v>
       </c>
       <c r="T29">
-        <v>0.0005502787207966661</v>
+        <v>0.0003581008528524264</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H30">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N30">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O30">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P30">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q30">
-        <v>0.01633041542833333</v>
+        <v>0.02881552677055556</v>
       </c>
       <c r="R30">
-        <v>0.146973738855</v>
+        <v>0.259339740935</v>
       </c>
       <c r="S30">
-        <v>6.04866652968623E-06</v>
+        <v>1.988159885741115E-05</v>
       </c>
       <c r="T30">
-        <v>6.048666529686229E-06</v>
+        <v>1.988159885741115E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1581616666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.474485</v>
+      </c>
+      <c r="I31">
+        <v>0.009157857699955935</v>
+      </c>
+      <c r="J31">
+        <v>0.009157857699955935</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G31">
-        <v>0.08448500000000002</v>
-      </c>
-      <c r="H31">
-        <v>0.253455</v>
-      </c>
-      <c r="I31">
-        <v>0.002949996159668451</v>
-      </c>
-      <c r="J31">
-        <v>0.002949996159668451</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
       <c r="M31">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N31">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O31">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P31">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q31">
-        <v>0.01572170100333333</v>
+        <v>0.001287383246111111</v>
       </c>
       <c r="R31">
-        <v>0.14149530903</v>
+        <v>0.011586449215</v>
       </c>
       <c r="S31">
-        <v>5.823203155236701E-06</v>
+        <v>8.882446425059557E-07</v>
       </c>
       <c r="T31">
-        <v>5.8232031552367E-06</v>
+        <v>8.88244642505956E-07</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H32">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I32">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J32">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N32">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O32">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P32">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q32">
-        <v>14.8649510808</v>
+        <v>2.66918179746</v>
       </c>
       <c r="R32">
-        <v>133.7845597272</v>
+        <v>24.02263617714</v>
       </c>
       <c r="S32">
-        <v>0.00550586924517906</v>
+        <v>0.001841632193544669</v>
       </c>
       <c r="T32">
-        <v>0.005505869245179059</v>
+        <v>0.00184163219354467</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H33">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I33">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J33">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>167.922954</v>
       </c>
       <c r="O33">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P33">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q33">
-        <v>41.06723763024</v>
+        <v>6.119952058530001</v>
       </c>
       <c r="R33">
-        <v>369.60513867216</v>
+        <v>55.07956852677</v>
       </c>
       <c r="S33">
-        <v>0.01521100469310322</v>
+        <v>0.004222530194332977</v>
       </c>
       <c r="T33">
-        <v>0.01521100469310322</v>
+        <v>0.004222530194332978</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H34">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I34">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J34">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N34">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O34">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P34">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q34">
-        <v>0.05271026135999999</v>
+        <v>0.006712585879999999</v>
       </c>
       <c r="R34">
-        <v>0.4743923522399999</v>
+        <v>0.06041327292</v>
       </c>
       <c r="S34">
-        <v>1.952349559375444E-05</v>
+        <v>4.631424607460305E-06</v>
       </c>
       <c r="T34">
-        <v>1.952349559375444E-05</v>
+        <v>4.631424607460307E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H35">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I35">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J35">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N35">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O35">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P35">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q35">
-        <v>12.90171315432</v>
+        <v>0.35878856081</v>
       </c>
       <c r="R35">
-        <v>116.11541838888</v>
+        <v>3.22909704729</v>
       </c>
       <c r="S35">
-        <v>0.004778700264829235</v>
+        <v>0.0002475502286476076</v>
       </c>
       <c r="T35">
-        <v>0.004778700264829234</v>
+        <v>0.0002475502286476077</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H36">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I36">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J36">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N36">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O36">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P36">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q36">
-        <v>0.14181569736</v>
+        <v>0.019919780095</v>
       </c>
       <c r="R36">
-        <v>1.27634127624</v>
+        <v>0.179278020855</v>
       </c>
       <c r="S36">
-        <v>5.252749789311939E-05</v>
+        <v>1.3743877747927E-05</v>
       </c>
       <c r="T36">
-        <v>5.252749789311939E-05</v>
+        <v>1.374387774792701E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H37">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I37">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J37">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N37">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O37">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P37">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q37">
-        <v>0.13652953296</v>
+        <v>0.0008899504550000001</v>
       </c>
       <c r="R37">
-        <v>1.22876579664</v>
+        <v>0.008009554095</v>
       </c>
       <c r="S37">
-        <v>5.056954123139092E-05</v>
+        <v>6.140313897492355E-07</v>
       </c>
       <c r="T37">
-        <v>5.056954123139091E-05</v>
+        <v>6.140313897492358E-07</v>
       </c>
     </row>
   </sheetData>
